--- a/Visuals/q3/q3results.xlsx
+++ b/Visuals/q3/q3results.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\Documents\Summer 2022\Garcia\Multi-scale Modeling\SSFillerChargeMD\Visuals\q3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CB6A6A-AAA3-44E4-8F53-CE867966464A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F036973B-6B57-49FE-8370-963CD7653BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2280" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAF" sheetId="2" r:id="rId1"/>
     <sheet name="SST" sheetId="3" r:id="rId2"/>
-    <sheet name="RDF" sheetId="1" r:id="rId3"/>
+    <sheet name="RDF_Filler_A" sheetId="1" r:id="rId3"/>
+    <sheet name="RDF_Filler_Counterion" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">SAF!$A$1:$E$534</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
   <si>
     <t>Timestep</t>
   </si>
@@ -34376,7 +34377,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>RDF!$B$1</c:f>
+              <c:f>RDF_Filler_A!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -34399,7 +34400,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>RDF!$A$2:$A$51</c:f>
+              <c:f>RDF_Filler_A!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -34558,7 +34559,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>RDF!$B$2:$B$51</c:f>
+              <c:f>RDF_Filler_A!$B$2:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -34727,7 +34728,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>RDF!$C$1</c:f>
+              <c:f>RDF_Filler_A!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -34750,7 +34751,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>RDF!$A$2:$A$51</c:f>
+              <c:f>RDF_Filler_A!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -34909,7 +34910,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>RDF!$C$2:$C$51</c:f>
+              <c:f>RDF_Filler_A!$C$2:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -35078,7 +35079,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>RDF!$D$1</c:f>
+              <c:f>RDF_Filler_A!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -35101,7 +35102,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>RDF!$A$2:$A$51</c:f>
+              <c:f>RDF_Filler_A!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -35260,7 +35261,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>RDF!$D$2:$D$51</c:f>
+              <c:f>RDF_Filler_A!$D$2:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -35429,7 +35430,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>RDF!$E$1</c:f>
+              <c:f>RDF_Filler_A!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -35452,7 +35453,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>RDF!$A$2:$A$51</c:f>
+              <c:f>RDF_Filler_A!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -35611,7 +35612,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>RDF!$E$2:$E$51</c:f>
+              <c:f>RDF_Filler_A!$E$2:$E$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -36149,6 +36150,1838 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Radial</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Distribution Function (RDF) of Counterions with Respect to Fillers for q_f=3</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RDF_Filler_Counterion!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25f</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>RDF_Filler_Counterion!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.075</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.125</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.175</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.325</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.425</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.4750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.5249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.575</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.625</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.675</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.7250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.7749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.825</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.925</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.9750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.0750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.125</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.1749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.2250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.2749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.3250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.375</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.4249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.4750000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>RDF_Filler_Counterion!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.1000000000000005E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6930000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.9309999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2626999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5334E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5876999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5540999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5414000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.5486E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.6563999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.8284999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.1114000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.5457E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.2002000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.1722000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.6645000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.9235E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.11206199999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.15602099999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.20880599999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.26506099999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.31975799999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.36904900000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.40702199999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.426095</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.425815</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.41200500000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.39379999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.37846800000000003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.37107000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.37409500000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.38899800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-220E-4D98-B47D-19FB6905BF1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RDF_Filler_Counterion!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50f</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>RDF_Filler_Counterion!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.075</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.125</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.175</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.325</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.425</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.4750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.5249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.575</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.625</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.675</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.7250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.7749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.825</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.925</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.9750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.0750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.125</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.1749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.2250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.2749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.3250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.375</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.4249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.4750000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>RDF_Filler_Counterion!$C$2:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.6000000000000004E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.743E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.4539999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.3546000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6485E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7160999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.6927999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.6764999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.7235E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.8370999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.0382000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.3557999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.8139999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.4951000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.4985999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.0311999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.3179000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.116427</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.16081899999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.21427299999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.27161200000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.32744099999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.37773400000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41692200000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.437448</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43789</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.42512299999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.40704099999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.39176800000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.38425700000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.38703799999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.40163199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-220E-4D98-B47D-19FB6905BF1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RDF_Filler_Counterion!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>75f</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>RDF_Filler_Counterion!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.075</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.125</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.175</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.325</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.425</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.4750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.5249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.575</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.625</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.675</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.7250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.7749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.825</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.925</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.9750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.0750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.125</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.1749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.2250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.2749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.3250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.375</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.4249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.4750000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>RDF_Filler_Counterion!$D$2:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.8E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.271E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.5170000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0102E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2404999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2932000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2845000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2723999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.3046E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.3931000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5465E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.7850000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.1486999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.6858E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.4973999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.7461999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.6298999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.3722E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.13120499999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.176485</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.225636</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.274279</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.31885999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.354319</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.37407699999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.37641999999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.36646600000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.351769</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.33902500000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.33325300000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.33713100000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.35220600000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-220E-4D98-B47D-19FB6905BF1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RDF_Filler_Counterion!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100f</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>RDF_Filler_Counterion!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.075</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.125</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.175</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.325</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.425</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.4750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.5249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.575</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.625</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.675</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.7250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.7749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.825</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.925</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.9750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.0750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.125</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.1749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.2250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.2749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.3250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.375</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.4249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.4750000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>RDF_Filler_Counterion!$E$2:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.8000000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.8999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.8159999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.9690000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.5520000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.8789999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.8039999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.7770000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.0170000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.6760000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0819E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.251E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.5084E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.8859000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.4691000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3452999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.7135999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.7119999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.4436999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.128021</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.16475000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.20133300000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.23533399999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.26292399999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.279393</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.28324199999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.27735900000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.267957</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.26041700000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.25835000000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.26447199999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.28036100000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-220E-4D98-B47D-19FB6905BF1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="717780976"/>
+        <c:axId val="717793872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="717780976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Distance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> to Counterion (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" baseline="0">
+                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>σ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="717793872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="717793872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>G(r)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="717780976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -36230,6 +38063,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -37817,6 +39690,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -37922,6 +40311,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40DD68F9-5150-0D2E-06C3-7DB258CA8F1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB0B3FE0-093D-45B5-9752-C58B63B7E944}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -61699,7 +64129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
@@ -62570,6 +65000,889 @@
       </c>
       <c r="E51">
         <v>2.53268</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A51A4831-CC94-493D-A232-981B5C525B42}">
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.125</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.375</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.625</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.875</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="B20">
+        <v>7.1000000000000005E-5</v>
+      </c>
+      <c r="C20">
+        <v>7.6000000000000004E-5</v>
+      </c>
+      <c r="D20">
+        <v>5.8E-5</v>
+      </c>
+      <c r="E20">
+        <v>3.8000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="B21">
+        <v>1.6930000000000001E-3</v>
+      </c>
+      <c r="C21">
+        <v>1.743E-3</v>
+      </c>
+      <c r="D21">
+        <v>1.271E-3</v>
+      </c>
+      <c r="E21">
+        <v>8.8999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="B22">
+        <v>6.9309999999999997E-3</v>
+      </c>
+      <c r="C22">
+        <v>7.4539999999999997E-3</v>
+      </c>
+      <c r="D22">
+        <v>5.5170000000000002E-3</v>
+      </c>
+      <c r="E22">
+        <v>3.8159999999999999E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1.075</v>
+      </c>
+      <c r="B23">
+        <v>1.2626999999999999E-2</v>
+      </c>
+      <c r="C23">
+        <v>1.3546000000000001E-2</v>
+      </c>
+      <c r="D23">
+        <v>1.0102E-2</v>
+      </c>
+      <c r="E23">
+        <v>6.9690000000000004E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1.125</v>
+      </c>
+      <c r="B24">
+        <v>1.5334E-2</v>
+      </c>
+      <c r="C24">
+        <v>1.6485E-2</v>
+      </c>
+      <c r="D24">
+        <v>1.2404999999999999E-2</v>
+      </c>
+      <c r="E24">
+        <v>8.5520000000000006E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1.175</v>
+      </c>
+      <c r="B25">
+        <v>1.5876999999999999E-2</v>
+      </c>
+      <c r="C25">
+        <v>1.7160999999999999E-2</v>
+      </c>
+      <c r="D25">
+        <v>1.2932000000000001E-2</v>
+      </c>
+      <c r="E25">
+        <v>8.8789999999999997E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="B26">
+        <v>1.5540999999999999E-2</v>
+      </c>
+      <c r="C26">
+        <v>1.6927999999999999E-2</v>
+      </c>
+      <c r="D26">
+        <v>1.2845000000000001E-2</v>
+      </c>
+      <c r="E26">
+        <v>8.8039999999999993E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="B27">
+        <v>1.5414000000000001E-2</v>
+      </c>
+      <c r="C27">
+        <v>1.6764999999999999E-2</v>
+      </c>
+      <c r="D27">
+        <v>1.2723999999999999E-2</v>
+      </c>
+      <c r="E27">
+        <v>8.7770000000000001E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1.325</v>
+      </c>
+      <c r="B28">
+        <v>1.5486E-2</v>
+      </c>
+      <c r="C28">
+        <v>1.7235E-2</v>
+      </c>
+      <c r="D28">
+        <v>1.3046E-2</v>
+      </c>
+      <c r="E28">
+        <v>9.0170000000000007E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1.375</v>
+      </c>
+      <c r="B29">
+        <v>1.6563999999999999E-2</v>
+      </c>
+      <c r="C29">
+        <v>1.8370999999999998E-2</v>
+      </c>
+      <c r="D29">
+        <v>1.3931000000000001E-2</v>
+      </c>
+      <c r="E29">
+        <v>9.6760000000000006E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1.425</v>
+      </c>
+      <c r="B30">
+        <v>1.8284999999999999E-2</v>
+      </c>
+      <c r="C30">
+        <v>2.0382000000000001E-2</v>
+      </c>
+      <c r="D30">
+        <v>1.5465E-2</v>
+      </c>
+      <c r="E30">
+        <v>1.0819E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1.4750000000000001</v>
+      </c>
+      <c r="B31">
+        <v>2.1114000000000001E-2</v>
+      </c>
+      <c r="C31">
+        <v>2.3557999999999999E-2</v>
+      </c>
+      <c r="D31">
+        <v>1.7850000000000001E-2</v>
+      </c>
+      <c r="E31">
+        <v>1.251E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="B32">
+        <v>2.5457E-2</v>
+      </c>
+      <c r="C32">
+        <v>2.8139999999999998E-2</v>
+      </c>
+      <c r="D32">
+        <v>2.1486999999999999E-2</v>
+      </c>
+      <c r="E32">
+        <v>1.5084E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1.575</v>
+      </c>
+      <c r="B33">
+        <v>3.2002000000000003E-2</v>
+      </c>
+      <c r="C33">
+        <v>3.4951000000000003E-2</v>
+      </c>
+      <c r="D33">
+        <v>2.6858E-2</v>
+      </c>
+      <c r="E33">
+        <v>1.8859000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1.625</v>
+      </c>
+      <c r="B34">
+        <v>4.1722000000000002E-2</v>
+      </c>
+      <c r="C34">
+        <v>4.4985999999999998E-2</v>
+      </c>
+      <c r="D34">
+        <v>3.4973999999999998E-2</v>
+      </c>
+      <c r="E34">
+        <v>2.4691000000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1.675</v>
+      </c>
+      <c r="B35">
+        <v>5.6645000000000001E-2</v>
+      </c>
+      <c r="C35">
+        <v>6.0311999999999998E-2</v>
+      </c>
+      <c r="D35">
+        <v>4.7461999999999997E-2</v>
+      </c>
+      <c r="E35">
+        <v>3.3452999999999997E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1.7250000000000001</v>
+      </c>
+      <c r="B36">
+        <v>7.9235E-2</v>
+      </c>
+      <c r="C36">
+        <v>8.3179000000000003E-2</v>
+      </c>
+      <c r="D36">
+        <v>6.6298999999999997E-2</v>
+      </c>
+      <c r="E36">
+        <v>4.7135999999999997E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="B37">
+        <v>0.11206199999999999</v>
+      </c>
+      <c r="C37">
+        <v>0.116427</v>
+      </c>
+      <c r="D37">
+        <v>9.3722E-2</v>
+      </c>
+      <c r="E37">
+        <v>6.7119999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1.825</v>
+      </c>
+      <c r="B38">
+        <v>0.15602099999999999</v>
+      </c>
+      <c r="C38">
+        <v>0.16081899999999999</v>
+      </c>
+      <c r="D38">
+        <v>0.13120499999999999</v>
+      </c>
+      <c r="E38">
+        <v>9.4436999999999993E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1.875</v>
+      </c>
+      <c r="B39">
+        <v>0.20880599999999999</v>
+      </c>
+      <c r="C39">
+        <v>0.21427299999999999</v>
+      </c>
+      <c r="D39">
+        <v>0.176485</v>
+      </c>
+      <c r="E39">
+        <v>0.128021</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1.925</v>
+      </c>
+      <c r="B40">
+        <v>0.26506099999999999</v>
+      </c>
+      <c r="C40">
+        <v>0.27161200000000002</v>
+      </c>
+      <c r="D40">
+        <v>0.225636</v>
+      </c>
+      <c r="E40">
+        <v>0.16475000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="B41">
+        <v>0.31975799999999999</v>
+      </c>
+      <c r="C41">
+        <v>0.32744099999999998</v>
+      </c>
+      <c r="D41">
+        <v>0.274279</v>
+      </c>
+      <c r="E41">
+        <v>0.20133300000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="B42">
+        <v>0.36904900000000002</v>
+      </c>
+      <c r="C42">
+        <v>0.37773400000000001</v>
+      </c>
+      <c r="D42">
+        <v>0.31885999999999998</v>
+      </c>
+      <c r="E42">
+        <v>0.23533399999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2.0750000000000002</v>
+      </c>
+      <c r="B43">
+        <v>0.40702199999999999</v>
+      </c>
+      <c r="C43">
+        <v>0.41692200000000001</v>
+      </c>
+      <c r="D43">
+        <v>0.354319</v>
+      </c>
+      <c r="E43">
+        <v>0.26292399999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2.125</v>
+      </c>
+      <c r="B44">
+        <v>0.426095</v>
+      </c>
+      <c r="C44">
+        <v>0.437448</v>
+      </c>
+      <c r="D44">
+        <v>0.37407699999999999</v>
+      </c>
+      <c r="E44">
+        <v>0.279393</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2.1749999999999998</v>
+      </c>
+      <c r="B45">
+        <v>0.425815</v>
+      </c>
+      <c r="C45">
+        <v>0.43789</v>
+      </c>
+      <c r="D45">
+        <v>0.37641999999999998</v>
+      </c>
+      <c r="E45">
+        <v>0.28324199999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2.2250000000000001</v>
+      </c>
+      <c r="B46">
+        <v>0.41200500000000001</v>
+      </c>
+      <c r="C46">
+        <v>0.42512299999999997</v>
+      </c>
+      <c r="D46">
+        <v>0.36646600000000001</v>
+      </c>
+      <c r="E46">
+        <v>0.27735900000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="B47">
+        <v>0.39379999999999998</v>
+      </c>
+      <c r="C47">
+        <v>0.40704099999999999</v>
+      </c>
+      <c r="D47">
+        <v>0.351769</v>
+      </c>
+      <c r="E47">
+        <v>0.267957</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2.3250000000000002</v>
+      </c>
+      <c r="B48">
+        <v>0.37846800000000003</v>
+      </c>
+      <c r="C48">
+        <v>0.39176800000000001</v>
+      </c>
+      <c r="D48">
+        <v>0.33902500000000002</v>
+      </c>
+      <c r="E48">
+        <v>0.26041700000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2.375</v>
+      </c>
+      <c r="B49">
+        <v>0.37107000000000001</v>
+      </c>
+      <c r="C49">
+        <v>0.38425700000000002</v>
+      </c>
+      <c r="D49">
+        <v>0.33325300000000002</v>
+      </c>
+      <c r="E49">
+        <v>0.25835000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2.4249999999999998</v>
+      </c>
+      <c r="B50">
+        <v>0.37409500000000001</v>
+      </c>
+      <c r="C50">
+        <v>0.38703799999999999</v>
+      </c>
+      <c r="D50">
+        <v>0.33713100000000001</v>
+      </c>
+      <c r="E50">
+        <v>0.26447199999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="B51">
+        <v>0.38899800000000001</v>
+      </c>
+      <c r="C51">
+        <v>0.40163199999999999</v>
+      </c>
+      <c r="D51">
+        <v>0.35220600000000002</v>
+      </c>
+      <c r="E51">
+        <v>0.28036100000000003</v>
       </c>
     </row>
   </sheetData>
